--- a/obrazec.xlsx
+++ b/obrazec.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\Accountant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE10970-E2B2-4B82-A604-0DD1EBC8862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC97A37-79E0-471C-ABD8-572BCE50BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BUDGET-payment-doc (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="BUDGET-payment-doc" sheetId="3" r:id="rId2"/>
-    <sheet name="BUDGET-CASH-payment-doc" sheetId="5" r:id="rId3"/>
+    <sheet name="BUDGET-payment-doc" sheetId="3" r:id="rId1"/>
+    <sheet name="BUDGET-CASH-payment-doc" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'BUDGET-CASH-payment-doc'!$B$2:$AJ$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'BUDGET-payment-doc'!$B$2:$AJ$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BUDGET-payment-doc (2)'!$B$2:$AJ$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'BUDGET-CASH-payment-doc'!$B$2:$AJ$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BUDGET-payment-doc'!$B$2:$AJ$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,144 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>go</author>
-  </authors>
-  <commentList>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{DDA4846F-F9C0-45D8-851F-3E9EB874DB22}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Получателя е винаги един и същ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{2D2F7A8C-850C-4B37-B415-486802754417}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>4 IBAN-а са, в зависимост от това, което искаш да платиш</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V24" authorId="0" shapeId="0" xr:uid="{7B05A74C-C264-410B-9D07-8081088A736B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>BGN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF24" authorId="0" shapeId="0" xr:uid="{806D2274-95C7-45B8-8C18-87D43DC813F7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Трябва да се попълни</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{64198852-BA17-4BC7-98DC-B6022D1E097E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>4 са основанията</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{5064D60D-E3CD-47AA-8EBD-CADBF7024E93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>разлини фирми</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{8CC90C5B-1FD2-4E53-8132-ADC9B443DF57}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>В зависимост от фирмата</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{CF01C7D0-2D53-4437-82EE-B629FC9D9CDD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>като задълженото лице</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{C4431A56-7A4A-48C2-92CC-346F8F6B3AAE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>попълва се</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t xml:space="preserve">До </t>
   </si>
@@ -1027,69 +889,12 @@
       <t>"Код в СЕБРА/идентификатор за централизация на титуляря".</t>
     </r>
   </si>
-  <si>
-    <t>Н</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>ц</t>
-  </si>
-  <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>н</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
-    <t>е</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t>х</t>
-  </si>
-  <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>т</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,13 +1031,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2061,2885 +1859,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F6D190-9C46-45D3-A0B5-2DB856203C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="27" customWidth="1"/>
-    <col min="2" max="36" width="2.5703125" style="27" customWidth="1"/>
-    <col min="37" max="37" width="3.5703125" style="27" customWidth="1"/>
-    <col min="38" max="16384" width="11.5703125" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-    </row>
-    <row r="2" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-    </row>
-    <row r="4" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-    </row>
-    <row r="6" spans="1:37" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-    </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="2"/>
-    </row>
-    <row r="8" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-    </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="2"/>
-    </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-    </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-    </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-    </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="2"/>
-    </row>
-    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-    </row>
-    <row r="15" spans="1:37" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-    </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="2"/>
-    </row>
-    <row r="17" spans="1:37" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="2"/>
-    </row>
-    <row r="18" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="2"/>
-    </row>
-    <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="2"/>
-    </row>
-    <row r="20" spans="1:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="2"/>
-    </row>
-    <row r="21" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="2"/>
-    </row>
-    <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="2"/>
-    </row>
-    <row r="23" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="2"/>
-    </row>
-    <row r="24" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="W24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="X24" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="2"/>
-    </row>
-    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="2"/>
-    </row>
-    <row r="26" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="2"/>
-    </row>
-    <row r="27" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="2"/>
-    </row>
-    <row r="28" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="2"/>
-    </row>
-    <row r="29" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="2"/>
-    </row>
-    <row r="31" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="2"/>
-    </row>
-    <row r="32" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="2"/>
-    </row>
-    <row r="34" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="2"/>
-    </row>
-    <row r="35" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="2"/>
-    </row>
-    <row r="36" spans="1:37" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="2"/>
-    </row>
-    <row r="39" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="2"/>
-    </row>
-    <row r="40" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="2"/>
-    </row>
-    <row r="41" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="2"/>
-    </row>
-    <row r="42" spans="1:37" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="2"/>
-    </row>
-    <row r="43" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="2"/>
-    </row>
-    <row r="44" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="15"/>
-      <c r="AK44" s="2"/>
-    </row>
-    <row r="45" spans="1:37" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="9"/>
-      <c r="AK45" s="2"/>
-    </row>
-    <row r="46" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="12"/>
-      <c r="AK46" s="2"/>
-    </row>
-    <row r="47" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="15"/>
-      <c r="AK47" s="2"/>
-    </row>
-    <row r="48" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="2"/>
-    </row>
-    <row r="49" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="2"/>
-    </row>
-    <row r="50" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="15"/>
-      <c r="AK50" s="2"/>
-    </row>
-    <row r="51" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="2"/>
-    </row>
-    <row r="52" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="2"/>
-    </row>
-    <row r="53" spans="1:37" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="2"/>
-    </row>
-    <row r="54" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="58"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="2"/>
-    </row>
-    <row r="55" spans="1:37" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="2"/>
-    </row>
-    <row r="56" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="28"/>
-      <c r="AK56" s="2"/>
-    </row>
-    <row r="57" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="28"/>
-      <c r="AK57" s="2"/>
-    </row>
-    <row r="58" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="28"/>
-      <c r="AK58" s="2"/>
-    </row>
-    <row r="59" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="2"/>
-    </row>
-    <row r="60" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="28"/>
-      <c r="AK60" s="2"/>
-    </row>
-    <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
-      <c r="AJ61" s="28"/>
-      <c r="AK61" s="2"/>
-    </row>
-    <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="28"/>
-      <c r="AK62" s="2"/>
-    </row>
-    <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="9"/>
-      <c r="AK63" s="2"/>
-    </row>
-    <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="9"/>
-      <c r="AK64" s="2"/>
-    </row>
-    <row r="65" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="28"/>
-      <c r="AK65" s="2"/>
-    </row>
-    <row r="66" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="28"/>
-      <c r="AK66" s="2"/>
-    </row>
-    <row r="67" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="28"/>
-      <c r="AK67" s="2"/>
-    </row>
-    <row r="68" spans="1:37" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
-      <c r="AE68" s="29"/>
-      <c r="AF68" s="29"/>
-      <c r="AG68" s="29"/>
-      <c r="AH68" s="29"/>
-      <c r="AI68" s="29"/>
-      <c r="AJ68" s="30"/>
-      <c r="AK68" s="2"/>
-    </row>
-    <row r="69" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H22:U24"/>
-  </mergeCells>
-  <pageMargins left="0.48" right="0.118110236220472" top="0.39" bottom="0.23" header="0.23" footer="0.16"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -7747,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK67"/>
   <sheetViews>

--- a/obrazec.xlsx
+++ b/obrazec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\Accountant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC97A37-79E0-471C-ABD8-572BCE50BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CB49D-5B6A-4F60-8CF4-4D73CA20E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t xml:space="preserve">До </t>
   </si>
@@ -888,6 +888,63 @@
       </rPr>
       <t>"Код в СЕБРА/идентификатор за централизация на титуляря".</t>
     </r>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1920,7 @@
   <dimension ref="A1:AK69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2559,37 +2616,93 @@
     </row>
     <row r="18" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="M18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="U18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
+      <c r="X18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
@@ -2823,9 +2936,15 @@
       <c r="S24" s="88"/>
       <c r="T24" s="88"/>
       <c r="U24" s="89"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
+      <c r="V24" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="Y24" s="45"/>
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
